--- a/biology/Médecine/1760_en_santé_et_médecine/1760_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1760_en_santé_et_médecine/1760_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1760_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1760_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1760 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1760_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1760_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Samuel Auguste Tissot (1728-1797) publie L'Onanisme ; ou Dissertation physique, sur les maladies produites par la masturbation, Lausanne, A. Chapuis, 1760, 250 p. (lire en ligne sur Gallica)[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Samuel Auguste Tissot (1728-1797) publie L'Onanisme ; ou Dissertation physique, sur les maladies produites par la masturbation, Lausanne, A. Chapuis, 1760, 250 p. (lire en ligne sur Gallica).</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1760_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1760_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,13 +555,15 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>28 janvier : Jean-Joseph Sue (mort en 1830), médecin et chirurgien français, médecin de Joséphine de Beauharnais, de Joseph Fouché puis de Louis XVIII, père d'Eugène Sue[2].
-13 avril : Thomas Beddoes (mort en 1808), médecin anglais[3].
-24 août : Pierre Rubini (mort en 1819), médecin italien, médecin en chef de la cour ducale de Parme en 1816[4].
-23 octobre : Hanaoka Seishū (mort en 1835), chirurgien japonais[5].
-15 décembre : David Heinrich Hoppe (mort en 1846), médecin, pharmacien et botaniste allemand[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>28 janvier : Jean-Joseph Sue (mort en 1830), médecin et chirurgien français, médecin de Joséphine de Beauharnais, de Joseph Fouché puis de Louis XVIII, père d'Eugène Sue.
+13 avril : Thomas Beddoes (mort en 1808), médecin anglais.
+24 août : Pierre Rubini (mort en 1819), médecin italien, médecin en chef de la cour ducale de Parme en 1816.
+23 octobre : Hanaoka Seishū (mort en 1835), chirurgien japonais.
+15 décembre : David Heinrich Hoppe (mort en 1846), médecin, pharmacien et botaniste allemand.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1760_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1760_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3 avril : Jacques-Bénigne Winslow (né en 1669), médecin et anatomiste français d’origine danoise, professeur au Jardin du Roi (1743-1758)[7].
-22 novembre : Charles Alston (né en 1685), médecin et botaniste britannique[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 avril : Jacques-Bénigne Winslow (né en 1669), médecin et anatomiste français d’origine danoise, professeur au Jardin du Roi (1743-1758).
+22 novembre : Charles Alston (né en 1685), médecin et botaniste britannique.</t>
         </is>
       </c>
     </row>
